--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T14:32:57+00:00</t>
+    <t>2024-04-30T14:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T14:33:35+00:00</t>
+    <t>2024-05-02T07:44:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24979" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24980" uniqueCount="1336">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T07:57:36+00:00</t>
+    <t>2024-05-28T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3203,7 +3203,10 @@
     <t>PDSm_FindDocumentReferencesComprehensiveResponse</t>
   </si>
   <si>
-    <t>Réponse de la transaction IHE "Find Document References [ITI-67]" basée sur le bundle MHD http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentReferencesComprehensiveResponseMessage et profilé pour le volet PDSm</t>
+    <t>PDSm Find DocumentReferences Comprehensive Response</t>
+  </si>
+  <si>
+    <t>Profil de réponse de la transaction IHE "Find Document References [ITI-67]" basée sur le bundle MHD FindDocumentReferencesComprehensiveResponseMessage et profilé pour le volet PDSm</t>
   </si>
   <si>
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentReferencesComprehensiveResponseMessage</t>
@@ -3324,7 +3327,7 @@
     <t>PDSm Find Lists Response</t>
   </si>
   <si>
-    <t>Réponse de la transaction IHE "Find Document Lists [ITI-66]" basée sur le bundle MHD http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentListsResponseMessage et profilé pour le volet PDSm</t>
+    <t>Profil de réponse de la transaction IHE "Find Document Lists [ITI-66]" basée sur le bundle MHD FindDocumentListsResponseMessage et profilé pour le volet PDSm</t>
   </si>
   <si>
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentListsResponseMessage</t>
@@ -3850,10 +3853,10 @@
     <t>PDSm_SimplifiedPublish</t>
   </si>
   <si>
-    <t>PDSm Simplified Publish</t>
-  </si>
-  <si>
-    <t>Ce profil est utilisé dans le cadre du flux 9 d'ajout simplifié de document. Le flux et le profil sont inspirés d’IHE MHD, transaction ITI-105.
+    <t>PDSm Simplified Publish Document Reference</t>
+  </si>
+  <si>
+    <t>Profil utilisé dans le cadre du flux 9 d'ajout simplifié de document. Le flux et le profil sont inspirés d’IHE MHD, transaction ITI-105.
 Contrairement au profil PDSm_ComprehensiveDocumentReference, le document est directement inclus dans DocumentReference.attachment.data et non dans une ressource « Binary » externe.
 La publication simplifiée est une simple requête HTTP POST d'une ressource DocumentReference conforme à ce profil.</t>
   </si>
@@ -5019,7 +5022,9 @@
       <c r="A89" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B89" s="2"/>
+      <c r="B89" t="s" s="2">
+        <v>1018</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
@@ -5064,7 +5069,7 @@
         <v>21</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="96">
@@ -5108,7 +5113,7 @@
         <v>31</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="102">
@@ -5140,7 +5145,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="106">
@@ -5148,7 +5153,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="107">
@@ -5164,7 +5169,7 @@
         <v>8</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="109">
@@ -5172,7 +5177,7 @@
         <v>10</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="110">
@@ -5218,7 +5223,7 @@
         <v>21</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="116">
@@ -5262,7 +5267,7 @@
         <v>31</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="122">
@@ -5294,7 +5299,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="126">
@@ -5302,7 +5307,7 @@
         <v>4</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="127">
@@ -5318,7 +5323,7 @@
         <v>8</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="129">
@@ -5326,7 +5331,7 @@
         <v>10</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="130">
@@ -5372,7 +5377,7 @@
         <v>21</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="136">
@@ -5408,7 +5413,7 @@
         <v>29</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="141">
@@ -5416,7 +5421,7 @@
         <v>31</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="142">
@@ -5448,7 +5453,7 @@
         <v>2</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="146">
@@ -5456,7 +5461,7 @@
         <v>4</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="147">
@@ -5472,7 +5477,7 @@
         <v>8</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="149">
@@ -5480,7 +5485,7 @@
         <v>10</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="150">
@@ -5526,7 +5531,7 @@
         <v>21</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="156">
@@ -5570,7 +5575,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="162">
@@ -5602,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="166">
@@ -5610,7 +5615,7 @@
         <v>4</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="167">
@@ -5626,7 +5631,7 @@
         <v>8</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="169">
@@ -5634,7 +5639,7 @@
         <v>10</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="170">
@@ -5680,7 +5685,7 @@
         <v>21</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="176">
@@ -5716,7 +5721,7 @@
         <v>29</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="181">
@@ -5724,7 +5729,7 @@
         <v>31</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="182">
@@ -47404,7 +47409,7 @@
       </c>
       <c r="R399" s="2"/>
       <c r="S399" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="T399" t="s" s="2">
         <v>73</v>
@@ -48373,7 +48378,7 @@
         <v>73</v>
       </c>
       <c r="AC408" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AD408" s="2"/>
       <c r="AE408" t="s" s="2">
@@ -51634,7 +51639,7 @@
         <v>1015</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C440" t="s" s="2">
         <v>628</v>
@@ -51739,7 +51744,7 @@
         <v>1015</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C441" t="s" s="2">
         <v>635</v>
@@ -51842,7 +51847,7 @@
         <v>1015</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C442" t="s" s="2">
         <v>636</v>
@@ -51947,7 +51952,7 @@
         <v>1015</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C443" t="s" s="2">
         <v>637</v>
@@ -52054,7 +52059,7 @@
         <v>1015</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C444" t="s" s="2">
         <v>638</v>
@@ -52157,7 +52162,7 @@
         <v>1015</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C445" t="s" s="2">
         <v>641</v>
@@ -52262,7 +52267,7 @@
         <v>1015</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C446" t="s" s="2">
         <v>645</v>
@@ -52367,7 +52372,7 @@
         <v>1015</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C447" t="s" s="2">
         <v>648</v>
@@ -52470,7 +52475,7 @@
         <v>1015</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C448" t="s" s="2">
         <v>652</v>
@@ -52573,7 +52578,7 @@
         <v>1015</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C449" t="s" s="2">
         <v>653</v>
@@ -52678,7 +52683,7 @@
         <v>1015</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C450" t="s" s="2">
         <v>654</v>
@@ -52785,7 +52790,7 @@
         <v>1015</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C451" t="s" s="2">
         <v>655</v>
@@ -52890,7 +52895,7 @@
         <v>1015</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C452" t="s" s="2">
         <v>661</v>
@@ -52995,7 +53000,7 @@
         <v>1015</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C453" t="s" s="2">
         <v>666</v>
@@ -53098,7 +53103,7 @@
         <v>1015</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C454" t="s" s="2">
         <v>670</v>
@@ -53201,7 +53206,7 @@
         <v>1015</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C455" t="s" s="2">
         <v>671</v>
@@ -53306,7 +53311,7 @@
         <v>1015</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C456" t="s" s="2">
         <v>672</v>
@@ -53413,7 +53418,7 @@
         <v>1015</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C457" t="s" s="2">
         <v>673</v>
@@ -53516,7 +53521,7 @@
         <v>1015</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C458" t="s" s="2">
         <v>678</v>
@@ -53621,7 +53626,7 @@
         <v>1015</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C459" t="s" s="2">
         <v>682</v>
@@ -53724,7 +53729,7 @@
         <v>1015</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C460" t="s" s="2">
         <v>685</v>
@@ -53827,7 +53832,7 @@
         <v>1015</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C461" t="s" s="2">
         <v>687</v>
@@ -53930,7 +53935,7 @@
         <v>1015</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C462" t="s" s="2">
         <v>690</v>
@@ -54033,7 +54038,7 @@
         <v>1015</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C463" t="s" s="2">
         <v>693</v>
@@ -54136,7 +54141,7 @@
         <v>1015</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C464" t="s" s="2">
         <v>697</v>
@@ -54239,7 +54244,7 @@
         <v>1015</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C465" t="s" s="2">
         <v>698</v>
@@ -54344,7 +54349,7 @@
         <v>1015</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C466" t="s" s="2">
         <v>699</v>
@@ -54451,7 +54456,7 @@
         <v>1015</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C467" t="s" s="2">
         <v>700</v>
@@ -54554,7 +54559,7 @@
         <v>1015</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C468" t="s" s="2">
         <v>703</v>
@@ -54657,7 +54662,7 @@
         <v>1015</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C469" t="s" s="2">
         <v>706</v>
@@ -54762,7 +54767,7 @@
         <v>1015</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C470" t="s" s="2">
         <v>710</v>
@@ -54867,7 +54872,7 @@
         <v>1015</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C471" t="s" s="2">
         <v>714</v>
@@ -55076,7 +55081,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>577</v>
@@ -55179,7 +55184,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>582</v>
@@ -55284,7 +55289,7 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>583</v>
@@ -55387,7 +55392,7 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>593</v>
@@ -55492,7 +55497,7 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>594</v>
@@ -55597,7 +55602,7 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>595</v>
@@ -55702,7 +55707,7 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>599</v>
@@ -55748,7 +55753,7 @@
       </c>
       <c r="R479" s="2"/>
       <c r="S479" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="T479" t="s" s="2">
         <v>73</v>
@@ -55807,7 +55812,7 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>606</v>
@@ -55912,7 +55917,7 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>610</v>
@@ -56017,7 +56022,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>615</v>
@@ -56122,7 +56127,7 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>619</v>
@@ -56225,7 +56230,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>620</v>
@@ -56330,7 +56335,7 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>621</v>
@@ -56437,7 +56442,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>622</v>
@@ -56540,7 +56545,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>625</v>
@@ -56643,7 +56648,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>628</v>
@@ -56717,7 +56722,7 @@
         <v>73</v>
       </c>
       <c r="AC488" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AD488" s="2"/>
       <c r="AE488" t="s" s="2">
@@ -56744,7 +56749,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>635</v>
@@ -56847,7 +56852,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>636</v>
@@ -56952,7 +56957,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>637</v>
@@ -57059,7 +57064,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>638</v>
@@ -57162,7 +57167,7 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>641</v>
@@ -57267,7 +57272,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>645</v>
@@ -57370,7 +57375,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>648</v>
@@ -57473,7 +57478,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>652</v>
@@ -57576,7 +57581,7 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>653</v>
@@ -57681,7 +57686,7 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>654</v>
@@ -57788,7 +57793,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>655</v>
@@ -57893,7 +57898,7 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>661</v>
@@ -57998,7 +58003,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>666</v>
@@ -58101,7 +58106,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>670</v>
@@ -58204,7 +58209,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>671</v>
@@ -58309,7 +58314,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>672</v>
@@ -58416,7 +58421,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>673</v>
@@ -58519,7 +58524,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>678</v>
@@ -58624,7 +58629,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>682</v>
@@ -58727,7 +58732,7 @@
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>685</v>
@@ -58830,7 +58835,7 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>687</v>
@@ -58933,7 +58938,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>690</v>
@@ -59036,7 +59041,7 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>693</v>
@@ -59139,7 +59144,7 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>697</v>
@@ -59242,7 +59247,7 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>698</v>
@@ -59347,7 +59352,7 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>699</v>
@@ -59454,7 +59459,7 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>700</v>
@@ -59557,7 +59562,7 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>703</v>
@@ -59660,7 +59665,7 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>706</v>
@@ -59765,7 +59770,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>710</v>
@@ -59870,7 +59875,7 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>714</v>
@@ -59975,7 +59980,7 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>718</v>
@@ -60009,7 +60014,7 @@
         <v>257</v>
       </c>
       <c r="M520" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="N520" t="s" s="2">
         <v>630</v>
@@ -60080,7 +60085,7 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>722</v>
@@ -60183,7 +60188,7 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>723</v>
@@ -60288,7 +60293,7 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>724</v>
@@ -60395,7 +60400,7 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>725</v>
@@ -60498,7 +60503,7 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>726</v>
@@ -60603,7 +60608,7 @@
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>727</v>
@@ -60706,7 +60711,7 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>733</v>
@@ -60809,7 +60814,7 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>734</v>
@@ -60912,7 +60917,7 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>735</v>
@@ -61017,7 +61022,7 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B530" t="s" s="2">
         <v>736</v>
@@ -61124,7 +61129,7 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B531" t="s" s="2">
         <v>737</v>
@@ -61229,7 +61234,7 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B532" t="s" s="2">
         <v>738</v>
@@ -61334,7 +61339,7 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B533" t="s" s="2">
         <v>739</v>
@@ -61437,7 +61442,7 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B534" t="s" s="2">
         <v>740</v>
@@ -61540,7 +61545,7 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B535" t="s" s="2">
         <v>741</v>
@@ -61645,7 +61650,7 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B536" t="s" s="2">
         <v>742</v>
@@ -61752,7 +61757,7 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B537" t="s" s="2">
         <v>743</v>
@@ -61855,7 +61860,7 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B538" t="s" s="2">
         <v>745</v>
@@ -61960,7 +61965,7 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B539" t="s" s="2">
         <v>746</v>
@@ -62063,7 +62068,7 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B540" t="s" s="2">
         <v>747</v>
@@ -62166,7 +62171,7 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B541" t="s" s="2">
         <v>748</v>
@@ -62269,7 +62274,7 @@
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B542" t="s" s="2">
         <v>749</v>
@@ -62372,7 +62377,7 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B543" t="s" s="2">
         <v>750</v>
@@ -62475,7 +62480,7 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B544" t="s" s="2">
         <v>751</v>
@@ -62578,7 +62583,7 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B545" t="s" s="2">
         <v>752</v>
@@ -62683,7 +62688,7 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B546" t="s" s="2">
         <v>753</v>
@@ -62790,7 +62795,7 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B547" t="s" s="2">
         <v>754</v>
@@ -62893,7 +62898,7 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B548" t="s" s="2">
         <v>755</v>
@@ -62996,7 +63001,7 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B549" t="s" s="2">
         <v>756</v>
@@ -63101,7 +63106,7 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B550" t="s" s="2">
         <v>757</v>
@@ -63206,7 +63211,7 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B551" t="s" s="2">
         <v>758</v>
@@ -63311,16 +63316,16 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C552" t="s" s="2">
         <v>628</v>
       </c>
       <c r="D552" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E552" t="s" s="2">
         <v>73</v>
@@ -63416,10 +63421,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C553" t="s" s="2">
         <v>635</v>
@@ -63519,10 +63524,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C554" t="s" s="2">
         <v>636</v>
@@ -63624,10 +63629,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C555" t="s" s="2">
         <v>637</v>
@@ -63731,10 +63736,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C556" t="s" s="2">
         <v>638</v>
@@ -63834,10 +63839,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C557" t="s" s="2">
         <v>641</v>
@@ -63939,10 +63944,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C558" t="s" s="2">
         <v>645</v>
@@ -64042,10 +64047,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C559" t="s" s="2">
         <v>648</v>
@@ -64145,10 +64150,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C560" t="s" s="2">
         <v>652</v>
@@ -64248,10 +64253,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C561" t="s" s="2">
         <v>653</v>
@@ -64353,10 +64358,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C562" t="s" s="2">
         <v>654</v>
@@ -64460,10 +64465,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C563" t="s" s="2">
         <v>655</v>
@@ -64565,10 +64570,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C564" t="s" s="2">
         <v>661</v>
@@ -64670,10 +64675,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C565" t="s" s="2">
         <v>666</v>
@@ -64773,10 +64778,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C566" t="s" s="2">
         <v>670</v>
@@ -64876,10 +64881,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C567" t="s" s="2">
         <v>671</v>
@@ -64981,10 +64986,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C568" t="s" s="2">
         <v>672</v>
@@ -65088,10 +65093,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C569" t="s" s="2">
         <v>673</v>
@@ -65191,10 +65196,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C570" t="s" s="2">
         <v>678</v>
@@ -65296,10 +65301,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C571" t="s" s="2">
         <v>682</v>
@@ -65399,10 +65404,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C572" t="s" s="2">
         <v>685</v>
@@ -65502,10 +65507,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C573" t="s" s="2">
         <v>687</v>
@@ -65605,10 +65610,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C574" t="s" s="2">
         <v>690</v>
@@ -65708,10 +65713,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C575" t="s" s="2">
         <v>693</v>
@@ -65811,10 +65816,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C576" t="s" s="2">
         <v>697</v>
@@ -65914,10 +65919,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C577" t="s" s="2">
         <v>698</v>
@@ -66019,10 +66024,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C578" t="s" s="2">
         <v>699</v>
@@ -66126,10 +66131,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C579" t="s" s="2">
         <v>700</v>
@@ -66229,10 +66234,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C580" t="s" s="2">
         <v>703</v>
@@ -66332,10 +66337,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C581" t="s" s="2">
         <v>706</v>
@@ -66437,10 +66442,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C582" t="s" s="2">
         <v>710</v>
@@ -66542,10 +66547,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C583" t="s" s="2">
         <v>714</v>
@@ -66647,7 +66652,7 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B584" t="s" s="2">
         <v>986</v>
@@ -66754,13 +66759,13 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -66840,7 +66845,7 @@
         <v>73</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="AH585" t="s" s="2">
         <v>74</v>
@@ -66857,13 +66862,13 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
@@ -66962,13 +66967,13 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -67065,13 +67070,13 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -67168,13 +67173,13 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -67273,13 +67278,13 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -67378,13 +67383,13 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -67483,13 +67488,13 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -67588,13 +67593,13 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C593" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D593" s="2"/>
       <c r="E593" t="s" s="2">
@@ -67693,13 +67698,13 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C594" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" t="s" s="2">
@@ -67798,13 +67803,13 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C595" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" t="s" s="2">
@@ -67903,13 +67908,13 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C596" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" t="s" s="2">
@@ -68008,13 +68013,13 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C597" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" t="s" s="2">
@@ -68113,13 +68118,13 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C598" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" t="s" s="2">
@@ -68218,13 +68223,13 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -68250,7 +68255,7 @@
         <v>174</v>
       </c>
       <c r="M599" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="N599" t="s" s="2">
         <v>176</v>
@@ -68323,13 +68328,13 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -68424,16 +68429,16 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B601" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="C601" t="s" s="2">
         <v>1117</v>
       </c>
-      <c r="C601" t="s" s="2">
-        <v>1116</v>
-      </c>
       <c r="D601" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E601" t="s" s="2">
         <v>73</v>
@@ -68455,13 +68460,13 @@
         <v>73</v>
       </c>
       <c r="L601" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="M601" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="N601" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="O601" s="2"/>
       <c r="P601" s="2"/>
@@ -68529,13 +68534,13 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -68632,13 +68637,13 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -68664,10 +68669,10 @@
         <v>198</v>
       </c>
       <c r="M603" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="N603" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="O603" s="2"/>
       <c r="P603" s="2"/>
@@ -68716,7 +68721,7 @@
         <v>108</v>
       </c>
       <c r="AG603" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="AH603" t="s" s="2">
         <v>74</v>
@@ -68733,16 +68738,16 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D604" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E604" t="s" s="2">
         <v>73</v>
@@ -68767,7 +68772,7 @@
         <v>192</v>
       </c>
       <c r="M604" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="N604" t="s" s="2">
         <v>194</v>
@@ -68821,7 +68826,7 @@
         <v>73</v>
       </c>
       <c r="AG604" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="AH604" t="s" s="2">
         <v>74</v>
@@ -68838,13 +68843,13 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D605" t="s" s="2">
         <v>203</v>
@@ -68872,7 +68877,7 @@
         <v>204</v>
       </c>
       <c r="M605" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="N605" t="s" s="2">
         <v>194</v>
@@ -68926,7 +68931,7 @@
         <v>73</v>
       </c>
       <c r="AG605" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="AH605" t="s" s="2">
         <v>74</v>
@@ -68943,13 +68948,13 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -68975,13 +68980,13 @@
         <v>157</v>
       </c>
       <c r="M606" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="N606" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="O606" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="P606" s="2"/>
       <c r="Q606" t="s" s="2">
@@ -69010,10 +69015,10 @@
         <v>210</v>
       </c>
       <c r="Z606" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="AA606" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="AB606" t="s" s="2">
         <v>73</v>
@@ -69031,7 +69036,7 @@
         <v>73</v>
       </c>
       <c r="AG606" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="AH606" t="s" s="2">
         <v>82</v>
@@ -69048,13 +69053,13 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
@@ -69080,16 +69085,16 @@
         <v>157</v>
       </c>
       <c r="M607" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="N607" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="O607" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="P607" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="Q607" t="s" s="2">
         <v>73</v>
@@ -69099,7 +69104,7 @@
         <v>73</v>
       </c>
       <c r="T607" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="U607" t="s" s="2">
         <v>73</v>
@@ -69117,10 +69122,10 @@
         <v>210</v>
       </c>
       <c r="Z607" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="AA607" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="AB607" t="s" s="2">
         <v>73</v>
@@ -69138,7 +69143,7 @@
         <v>73</v>
       </c>
       <c r="AG607" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="AH607" t="s" s="2">
         <v>82</v>
@@ -69155,13 +69160,13 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -69187,14 +69192,14 @@
         <v>96</v>
       </c>
       <c r="M608" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="N608" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="O608" s="2"/>
       <c r="P608" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="Q608" t="s" s="2">
         <v>73</v>
@@ -69207,7 +69212,7 @@
         <v>73</v>
       </c>
       <c r="U608" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="V608" t="s" s="2">
         <v>73</v>
@@ -69243,7 +69248,7 @@
         <v>73</v>
       </c>
       <c r="AG608" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="AH608" t="s" s="2">
         <v>74</v>
@@ -69260,13 +69265,13 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -69292,16 +69297,16 @@
         <v>219</v>
       </c>
       <c r="M609" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="N609" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O609" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="P609" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q609" t="s" s="2">
         <v>73</v>
@@ -69311,7 +69316,7 @@
         <v>73</v>
       </c>
       <c r="T609" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="U609" t="s" s="2">
         <v>73</v>
@@ -69330,7 +69335,7 @@
       </c>
       <c r="Z609" s="2"/>
       <c r="AA609" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="AB609" t="s" s="2">
         <v>73</v>
@@ -69348,7 +69353,7 @@
         <v>73</v>
       </c>
       <c r="AG609" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="AH609" t="s" s="2">
         <v>74</v>
@@ -69365,13 +69370,13 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -69397,16 +69402,16 @@
         <v>233</v>
       </c>
       <c r="M610" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="N610" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="O610" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="P610" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="Q610" t="s" s="2">
         <v>73</v>
@@ -69455,7 +69460,7 @@
         <v>73</v>
       </c>
       <c r="AG610" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="AH610" t="s" s="2">
         <v>74</v>
@@ -69472,13 +69477,13 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -69501,13 +69506,13 @@
         <v>73</v>
       </c>
       <c r="L611" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="M611" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="N611" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="O611" s="2"/>
       <c r="P611" s="2"/>
@@ -69558,7 +69563,7 @@
         <v>73</v>
       </c>
       <c r="AG611" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="AH611" t="s" s="2">
         <v>74</v>
@@ -69575,13 +69580,13 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -69607,16 +69612,16 @@
         <v>354</v>
       </c>
       <c r="M612" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="N612" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="O612" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="P612" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="Q612" t="s" s="2">
         <v>73</v>
@@ -69665,7 +69670,7 @@
         <v>73</v>
       </c>
       <c r="AG612" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="AH612" t="s" s="2">
         <v>74</v>
@@ -69682,17 +69687,17 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="F613" s="2"/>
       <c r="G613" t="s" s="2">
@@ -69711,19 +69716,19 @@
         <v>83</v>
       </c>
       <c r="L613" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="M613" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="N613" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="O613" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="P613" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="Q613" t="s" s="2">
         <v>73</v>
@@ -69772,7 +69777,7 @@
         <v>73</v>
       </c>
       <c r="AG613" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="AH613" t="s" s="2">
         <v>74</v>
@@ -69789,13 +69794,13 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -69821,16 +69826,16 @@
         <v>219</v>
       </c>
       <c r="M614" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="N614" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="O614" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="P614" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="Q614" t="s" s="2">
         <v>73</v>
@@ -69858,10 +69863,10 @@
         <v>161</v>
       </c>
       <c r="Z614" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="AA614" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="AB614" t="s" s="2">
         <v>73</v>
@@ -69879,7 +69884,7 @@
         <v>73</v>
       </c>
       <c r="AG614" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="AH614" t="s" s="2">
         <v>74</v>
@@ -69896,13 +69901,13 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
@@ -69925,13 +69930,13 @@
         <v>73</v>
       </c>
       <c r="L615" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="M615" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="N615" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="O615" s="2"/>
       <c r="P615" s="2"/>
@@ -69982,7 +69987,7 @@
         <v>73</v>
       </c>
       <c r="AG615" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="AH615" t="s" s="2">
         <v>74</v>
@@ -69999,13 +70004,13 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -70031,13 +70036,13 @@
         <v>257</v>
       </c>
       <c r="M616" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="N616" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="O616" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="P616" s="2"/>
       <c r="Q616" t="s" s="2">
@@ -70087,7 +70092,7 @@
         <v>73</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>74</v>
@@ -70096,7 +70101,7 @@
         <v>75</v>
       </c>
       <c r="AJ616" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="AK616" t="s" s="2">
         <v>94</v>
@@ -70104,13 +70109,13 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
@@ -70207,13 +70212,13 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -70312,13 +70317,13 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -70419,13 +70424,13 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -70451,16 +70456,16 @@
         <v>219</v>
       </c>
       <c r="M620" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="N620" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="O620" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="P620" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="Q620" t="s" s="2">
         <v>73</v>
@@ -70488,10 +70493,10 @@
         <v>147</v>
       </c>
       <c r="Z620" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="AA620" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="AB620" t="s" s="2">
         <v>73</v>
@@ -70509,7 +70514,7 @@
         <v>73</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>74</v>
@@ -70526,13 +70531,13 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -70558,68 +70563,68 @@
         <v>528</v>
       </c>
       <c r="M621" t="s" s="2">
+        <v>1206</v>
+      </c>
+      <c r="N621" t="s" s="2">
+        <v>1207</v>
+      </c>
+      <c r="O621" t="s" s="2">
+        <v>1208</v>
+      </c>
+      <c r="P621" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="Q621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R621" t="s" s="2">
+        <v>1210</v>
+      </c>
+      <c r="S621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF621" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG621" t="s" s="2">
         <v>1205</v>
       </c>
-      <c r="N621" t="s" s="2">
-        <v>1206</v>
-      </c>
-      <c r="O621" t="s" s="2">
-        <v>1207</v>
-      </c>
-      <c r="P621" t="s" s="2">
-        <v>1208</v>
-      </c>
-      <c r="Q621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R621" t="s" s="2">
-        <v>1209</v>
-      </c>
-      <c r="S621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF621" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG621" t="s" s="2">
-        <v>1204</v>
-      </c>
       <c r="AH621" t="s" s="2">
         <v>74</v>
       </c>
@@ -70627,7 +70632,7 @@
         <v>82</v>
       </c>
       <c r="AJ621" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="AK621" t="s" s="2">
         <v>94</v>
@@ -70635,13 +70640,13 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -70667,14 +70672,14 @@
         <v>354</v>
       </c>
       <c r="M622" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="N622" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="O622" s="2"/>
       <c r="P622" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="Q622" t="s" s="2">
         <v>73</v>
@@ -70723,7 +70728,7 @@
         <v>73</v>
       </c>
       <c r="AG622" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="AH622" t="s" s="2">
         <v>74</v>
@@ -70740,13 +70745,13 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -70769,13 +70774,13 @@
         <v>73</v>
       </c>
       <c r="L623" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="M623" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="N623" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="O623" s="2"/>
       <c r="P623" s="2"/>
@@ -70826,7 +70831,7 @@
         <v>73</v>
       </c>
       <c r="AG623" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="AH623" t="s" s="2">
         <v>82</v>
@@ -70843,13 +70848,13 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -70875,16 +70880,16 @@
         <v>219</v>
       </c>
       <c r="M624" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="N624" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="O624" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="P624" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="Q624" t="s" s="2">
         <v>73</v>
@@ -70912,10 +70917,10 @@
         <v>161</v>
       </c>
       <c r="Z624" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="AA624" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="AB624" t="s" s="2">
         <v>73</v>
@@ -70933,7 +70938,7 @@
         <v>73</v>
       </c>
       <c r="AG624" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="AH624" t="s" s="2">
         <v>74</v>
@@ -70942,7 +70947,7 @@
         <v>82</v>
       </c>
       <c r="AJ624" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="AK624" t="s" s="2">
         <v>94</v>
@@ -70950,7 +70955,7 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B625" t="s" s="2">
         <v>30</v>
@@ -71055,7 +71060,7 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B626" t="s" s="2">
         <v>81</v>
@@ -71160,7 +71165,7 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B627" t="s" s="2">
         <v>89</v>
@@ -71263,7 +71268,7 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B628" t="s" s="2">
         <v>95</v>
@@ -71366,7 +71371,7 @@
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B629" t="s" s="2">
         <v>100</v>
@@ -71471,7 +71476,7 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B630" t="s" s="2">
         <v>111</v>
@@ -71576,7 +71581,7 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B631" t="s" s="2">
         <v>116</v>
@@ -71681,7 +71686,7 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B632" t="s" s="2">
         <v>122</v>
@@ -71716,7 +71721,7 @@
         <v>124</v>
       </c>
       <c r="N632" t="s" s="2">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="O632" t="s" s="2">
         <v>126</v>
@@ -71786,7 +71791,7 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B633" t="s" s="2">
         <v>128</v>
@@ -71821,7 +71826,7 @@
         <v>130</v>
       </c>
       <c r="N633" t="s" s="2">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="O633" t="s" s="2">
         <v>132</v>
@@ -71891,7 +71896,7 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B634" t="s" s="2">
         <v>134</v>
@@ -71996,7 +72001,7 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B635" t="s" s="2">
         <v>143</v>
@@ -72101,7 +72106,7 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B636" t="s" s="2">
         <v>151</v>
@@ -72206,7 +72211,7 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B637" t="s" s="2">
         <v>156</v>
@@ -72311,7 +72316,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B638" t="s" s="2">
         <v>165</v>
@@ -72416,7 +72421,7 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B639" t="s" s="2">
         <v>172</v>
@@ -72448,7 +72453,7 @@
         <v>174</v>
       </c>
       <c r="M639" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="N639" t="s" s="2">
         <v>176</v>
@@ -72521,7 +72526,7 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B640" t="s" s="2">
         <v>179</v>
@@ -72556,7 +72561,7 @@
         <v>103</v>
       </c>
       <c r="N640" t="s" s="2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="O640" t="s" s="2">
         <v>105</v>
@@ -72626,7 +72631,7 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B641" t="s" s="2">
         <v>189</v>
@@ -72729,7 +72734,7 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B642" t="s" s="2">
         <v>191</v>
@@ -72764,7 +72769,7 @@
         <v>193</v>
       </c>
       <c r="N642" t="s" s="2">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="O642" t="s" s="2">
         <v>195</v>
@@ -72836,7 +72841,7 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B643" t="s" s="2">
         <v>197</v>
@@ -72939,7 +72944,7 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B644" t="s" s="2">
         <v>206</v>
@@ -72988,7 +72993,7 @@
         <v>73</v>
       </c>
       <c r="T644" t="s" s="2">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="U644" t="s" s="2">
         <v>73</v>
@@ -73006,10 +73011,10 @@
         <v>210</v>
       </c>
       <c r="Z644" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="AA644" t="s" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="AB644" t="s" s="2">
         <v>73</v>
@@ -73044,7 +73049,7 @@
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B645" t="s" s="2">
         <v>212</v>
@@ -73149,7 +73154,7 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B646" t="s" s="2">
         <v>218</v>
@@ -73181,7 +73186,7 @@
         <v>219</v>
       </c>
       <c r="M646" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="N646" t="s" s="2">
         <v>220</v>
@@ -73252,7 +73257,7 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B647" t="s" s="2">
         <v>225</v>
@@ -73355,7 +73360,7 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B648" t="s" s="2">
         <v>232</v>
@@ -73387,7 +73392,7 @@
         <v>233</v>
       </c>
       <c r="M648" t="s" s="2">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="N648" t="s" s="2">
         <v>235</v>
@@ -73458,7 +73463,7 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B649" t="s" s="2">
         <v>236</v>
@@ -73563,7 +73568,7 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B650" t="s" s="2">
         <v>241</v>
@@ -73592,7 +73597,7 @@
         <v>83</v>
       </c>
       <c r="L650" t="s" s="2">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="M650" t="s" s="2">
         <v>243</v>
@@ -73668,7 +73673,7 @@
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B651" t="s" s="2">
         <v>246</v>
@@ -73697,10 +73702,10 @@
         <v>73</v>
       </c>
       <c r="L651" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="M651" t="s" s="2">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="N651" t="s" s="2">
         <v>249</v>
@@ -73773,7 +73778,7 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B652" t="s" s="2">
         <v>251</v>
@@ -73878,7 +73883,7 @@
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B653" t="s" s="2">
         <v>256</v>
@@ -73910,10 +73915,10 @@
         <v>257</v>
       </c>
       <c r="M653" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="N653" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="O653" t="s" s="2">
         <v>260</v>
@@ -73983,7 +73988,7 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B654" t="s" s="2">
         <v>262</v>
@@ -74086,7 +74091,7 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B655" t="s" s="2">
         <v>263</v>
@@ -74191,7 +74196,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B656" t="s" s="2">
         <v>264</v>
@@ -74298,7 +74303,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B657" t="s" s="2">
         <v>270</v>
@@ -74330,7 +74335,7 @@
         <v>157</v>
       </c>
       <c r="M657" t="s" s="2">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="N657" t="s" s="2">
         <v>272</v>
@@ -74403,7 +74408,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B658" t="s" s="2">
         <v>276</v>
@@ -74435,7 +74440,7 @@
         <v>277</v>
       </c>
       <c r="M658" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="N658" t="s" s="2">
         <v>279</v>
@@ -74506,7 +74511,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B659" t="s" s="2">
         <v>281</v>
@@ -74613,7 +74618,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B660" t="s" s="2">
         <v>286</v>
@@ -74720,7 +74725,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B661" t="s" s="2">
         <v>292</v>
@@ -74752,7 +74757,7 @@
         <v>257</v>
       </c>
       <c r="M661" t="s" s="2">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="N661" t="s" s="2">
         <v>294</v>
@@ -74823,7 +74828,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B662" t="s" s="2">
         <v>295</v>
@@ -74926,7 +74931,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B663" t="s" s="2">
         <v>296</v>
@@ -75031,7 +75036,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B664" t="s" s="2">
         <v>297</v>
@@ -75138,7 +75143,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B665" t="s" s="2">
         <v>298</v>
@@ -75241,7 +75246,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B666" t="s" s="2">
         <v>302</v>
@@ -75344,7 +75349,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>303</v>
@@ -75449,7 +75454,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>304</v>
@@ -75554,7 +75559,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>312</v>
@@ -75659,7 +75664,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B670" t="s" s="2">
         <v>318</v>
@@ -75691,7 +75696,7 @@
         <v>319</v>
       </c>
       <c r="M670" t="s" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="N670" t="s" s="2">
         <v>321</v>
@@ -75766,7 +75771,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B671" t="s" s="2">
         <v>325</v>
@@ -75798,7 +75803,7 @@
         <v>326</v>
       </c>
       <c r="M671" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="N671" t="s" s="2">
         <v>328</v>
@@ -75873,7 +75878,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B672" t="s" s="2">
         <v>334</v>
@@ -75980,7 +75985,7 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B673" t="s" s="2">
         <v>341</v>
@@ -76087,7 +76092,7 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B674" t="s" s="2">
         <v>347</v>
@@ -76192,7 +76197,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B675" t="s" s="2">
         <v>353</v>
@@ -76224,7 +76229,7 @@
         <v>354</v>
       </c>
       <c r="M675" t="s" s="2">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="N675" t="s" s="2">
         <v>356</v>
@@ -76297,7 +76302,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B676" t="s" s="2">
         <v>359</v>
@@ -76400,7 +76405,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B677" t="s" s="2">
         <v>365</v>
@@ -76505,7 +76510,7 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B678" t="s" s="2">
         <v>369</v>
@@ -76608,7 +76613,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B679" t="s" s="2">
         <v>370</v>
@@ -76713,7 +76718,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B680" t="s" s="2">
         <v>371</v>
@@ -76820,7 +76825,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B681" t="s" s="2">
         <v>372</v>
@@ -76923,7 +76928,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B682" t="s" s="2">
         <v>376</v>
@@ -77028,7 +77033,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B683" t="s" s="2">
         <v>383</v>
@@ -77131,7 +77136,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B684" t="s" s="2">
         <v>401</v>
@@ -77227,12 +77232,12 @@
         <v>73</v>
       </c>
       <c r="AK684" t="s" s="2">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B685" t="s" s="2">
         <v>406</v>
@@ -77332,12 +77337,12 @@
         <v>73</v>
       </c>
       <c r="AK685" t="s" s="2">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B686" t="s" s="2">
         <v>412</v>
@@ -77440,7 +77445,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B687" t="s" s="2">
         <v>441</v>
@@ -77545,13 +77550,13 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B688" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C688" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D688" s="2"/>
       <c r="E688" t="s" s="2">
@@ -77631,7 +77636,7 @@
         <v>73</v>
       </c>
       <c r="AG688" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="AH688" t="s" s="2">
         <v>74</v>
@@ -77648,13 +77653,13 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B689" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C689" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D689" s="2"/>
       <c r="E689" t="s" s="2">
@@ -77753,13 +77758,13 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C690" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" t="s" s="2">
@@ -77856,13 +77861,13 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C691" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" t="s" s="2">
@@ -77959,13 +77964,13 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C692" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" t="s" s="2">
@@ -78064,13 +78069,13 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C693" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" t="s" s="2">
@@ -78169,13 +78174,13 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C694" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" t="s" s="2">
@@ -78274,13 +78279,13 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C695" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" t="s" s="2">
@@ -78379,13 +78384,13 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C696" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" t="s" s="2">
@@ -78484,13 +78489,13 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B697" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C697" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D697" s="2"/>
       <c r="E697" t="s" s="2">
@@ -78589,13 +78594,13 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C698" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" t="s" s="2">
@@ -78694,13 +78699,13 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C699" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
@@ -78799,13 +78804,13 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B700" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C700" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D700" s="2"/>
       <c r="E700" t="s" s="2">
@@ -78904,13 +78909,13 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B701" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C701" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
@@ -79009,13 +79014,13 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C702" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
@@ -79041,7 +79046,7 @@
         <v>174</v>
       </c>
       <c r="M702" t="s" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="N702" t="s" s="2">
         <v>176</v>
@@ -79114,13 +79119,13 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C703" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
@@ -79128,7 +79133,7 @@
       </c>
       <c r="F703" s="2"/>
       <c r="G703" t="s" s="2">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H703" t="s" s="2">
         <v>75</v>
@@ -79215,16 +79220,16 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B704" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="C704" t="s" s="2">
         <v>1117</v>
       </c>
-      <c r="C704" t="s" s="2">
-        <v>1116</v>
-      </c>
       <c r="D704" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E704" t="s" s="2">
         <v>73</v>
@@ -79246,13 +79251,13 @@
         <v>73</v>
       </c>
       <c r="L704" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="M704" t="s" s="2">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="N704" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="O704" s="2"/>
       <c r="P704" s="2"/>
@@ -79315,18 +79320,18 @@
         <v>188</v>
       </c>
       <c r="AK704" t="s" s="2">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" t="s" s="2">
@@ -79423,13 +79428,13 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
@@ -79526,13 +79531,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -79572,7 +79577,7 @@
       </c>
       <c r="R707" s="2"/>
       <c r="S707" t="s" s="2">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="T707" t="s" s="2">
         <v>73</v>
@@ -79631,13 +79636,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -79697,13 +79702,13 @@
       </c>
       <c r="Z708" s="2"/>
       <c r="AA708" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AB708" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AC708" t="s" s="2">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="AD708" s="2"/>
       <c r="AE708" t="s" s="2">
@@ -79730,16 +79735,16 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D709" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="E709" t="s" s="2">
         <v>73</v>
@@ -79835,16 +79840,16 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D710" t="s" s="2">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E710" t="s" s="2">
         <v>73</v>
@@ -79866,13 +79871,13 @@
         <v>73</v>
       </c>
       <c r="L710" t="s" s="2">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="M710" t="s" s="2">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="N710" t="s" s="2">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="O710" s="2"/>
       <c r="P710" s="2"/>
@@ -79940,16 +79945,16 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C711" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D711" t="s" s="2">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="E711" t="s" s="2">
         <v>73</v>
@@ -79971,13 +79976,13 @@
         <v>73</v>
       </c>
       <c r="L711" t="s" s="2">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="M711" t="s" s="2">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="N711" t="s" s="2">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="O711" s="2"/>
       <c r="P711" s="2"/>
@@ -80045,13 +80050,13 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C712" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D712" t="s" s="2">
         <v>184</v>
@@ -80079,7 +80084,7 @@
         <v>185</v>
       </c>
       <c r="M712" t="s" s="2">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="N712" t="s" s="2">
         <v>187</v>
@@ -80150,16 +80155,16 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B713" t="s" s="2">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C713" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D713" t="s" s="2">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E713" t="s" s="2">
         <v>73</v>
@@ -80181,10 +80186,10 @@
         <v>73</v>
       </c>
       <c r="L713" t="s" s="2">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="M713" t="s" s="2">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="N713" t="s" s="2">
         <v>995</v>
@@ -80255,13 +80260,13 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B714" t="s" s="2">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C714" t="s" s="2">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" t="s" s="2">
@@ -80358,13 +80363,13 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B715" t="s" s="2">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C715" t="s" s="2">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" t="s" s="2">
@@ -80461,13 +80466,13 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C716" t="s" s="2">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" t="s" s="2">
@@ -80566,13 +80571,13 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C717" t="s" s="2">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" t="s" s="2">
@@ -80595,7 +80600,7 @@
         <v>73</v>
       </c>
       <c r="L717" t="s" s="2">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="M717" t="s" s="2">
         <v>1008</v>
@@ -80669,13 +80674,13 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B718" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C718" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D718" s="2"/>
       <c r="E718" t="s" s="2">
@@ -80772,13 +80777,13 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B719" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C719" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D719" s="2"/>
       <c r="E719" t="s" s="2">
@@ -80804,10 +80809,10 @@
         <v>198</v>
       </c>
       <c r="M719" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="N719" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="O719" s="2"/>
       <c r="P719" s="2"/>
@@ -80856,7 +80861,7 @@
         <v>108</v>
       </c>
       <c r="AG719" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="AH719" t="s" s="2">
         <v>74</v>
@@ -80873,16 +80878,16 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C720" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D720" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E720" t="s" s="2">
         <v>73</v>
@@ -80904,10 +80909,10 @@
         <v>73</v>
       </c>
       <c r="L720" t="s" s="2">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="M720" t="s" s="2">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="N720" t="s" s="2">
         <v>194</v>
@@ -80961,7 +80966,7 @@
         <v>73</v>
       </c>
       <c r="AG720" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="AH720" t="s" s="2">
         <v>74</v>
@@ -80978,13 +80983,13 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B721" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C721" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D721" t="s" s="2">
         <v>203</v>
@@ -81012,7 +81017,7 @@
         <v>204</v>
       </c>
       <c r="M721" t="s" s="2">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="N721" t="s" s="2">
         <v>194</v>
@@ -81066,7 +81071,7 @@
         <v>73</v>
       </c>
       <c r="AG721" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="AH721" t="s" s="2">
         <v>74</v>
@@ -81083,13 +81088,13 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B722" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C722" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D722" s="2"/>
       <c r="E722" t="s" s="2">
@@ -81115,13 +81120,13 @@
         <v>157</v>
       </c>
       <c r="M722" t="s" s="2">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="N722" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="O722" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="P722" s="2"/>
       <c r="Q722" t="s" s="2">
@@ -81132,7 +81137,7 @@
         <v>73</v>
       </c>
       <c r="T722" t="s" s="2">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="U722" t="s" s="2">
         <v>73</v>
@@ -81150,10 +81155,10 @@
         <v>210</v>
       </c>
       <c r="Z722" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="AA722" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="AB722" t="s" s="2">
         <v>73</v>
@@ -81171,7 +81176,7 @@
         <v>73</v>
       </c>
       <c r="AG722" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="AH722" t="s" s="2">
         <v>82</v>
@@ -81188,13 +81193,13 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B723" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C723" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D723" s="2"/>
       <c r="E723" t="s" s="2">
@@ -81220,16 +81225,16 @@
         <v>157</v>
       </c>
       <c r="M723" t="s" s="2">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="N723" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="O723" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="P723" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="Q723" t="s" s="2">
         <v>73</v>
@@ -81239,7 +81244,7 @@
         <v>73</v>
       </c>
       <c r="T723" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="U723" t="s" s="2">
         <v>73</v>
@@ -81257,10 +81262,10 @@
         <v>210</v>
       </c>
       <c r="Z723" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="AA723" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="AB723" t="s" s="2">
         <v>73</v>
@@ -81278,7 +81283,7 @@
         <v>73</v>
       </c>
       <c r="AG723" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="AH723" t="s" s="2">
         <v>82</v>
@@ -81295,13 +81300,13 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B724" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C724" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D724" s="2"/>
       <c r="E724" t="s" s="2">
@@ -81327,14 +81332,14 @@
         <v>96</v>
       </c>
       <c r="M724" t="s" s="2">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="N724" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="O724" s="2"/>
       <c r="P724" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="Q724" t="s" s="2">
         <v>73</v>
@@ -81347,7 +81352,7 @@
         <v>73</v>
       </c>
       <c r="U724" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="V724" t="s" s="2">
         <v>73</v>
@@ -81383,7 +81388,7 @@
         <v>73</v>
       </c>
       <c r="AG724" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="AH724" t="s" s="2">
         <v>74</v>
@@ -81400,13 +81405,13 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B725" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C725" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D725" s="2"/>
       <c r="E725" t="s" s="2">
@@ -81432,16 +81437,16 @@
         <v>219</v>
       </c>
       <c r="M725" t="s" s="2">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="N725" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O725" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="P725" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q725" t="s" s="2">
         <v>73</v>
@@ -81451,7 +81456,7 @@
         <v>73</v>
       </c>
       <c r="T725" t="s" s="2">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="U725" t="s" s="2">
         <v>73</v>
@@ -81470,7 +81475,7 @@
       </c>
       <c r="Z725" s="2"/>
       <c r="AA725" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="AB725" t="s" s="2">
         <v>73</v>
@@ -81488,7 +81493,7 @@
         <v>73</v>
       </c>
       <c r="AG725" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="AH725" t="s" s="2">
         <v>74</v>
@@ -81505,13 +81510,13 @@
     </row>
     <row r="726">
       <c r="A726" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B726" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C726" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D726" s="2"/>
       <c r="E726" t="s" s="2">
@@ -81540,13 +81545,13 @@
         <v>414</v>
       </c>
       <c r="N726" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="O726" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="P726" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="Q726" t="s" s="2">
         <v>73</v>
@@ -81595,7 +81600,7 @@
         <v>73</v>
       </c>
       <c r="AG726" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="AH726" t="s" s="2">
         <v>74</v>
@@ -81612,13 +81617,13 @@
     </row>
     <row r="727">
       <c r="A727" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B727" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C727" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D727" s="2"/>
       <c r="E727" t="s" s="2">
@@ -81641,13 +81646,13 @@
         <v>73</v>
       </c>
       <c r="L727" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="M727" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="N727" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="O727" s="2"/>
       <c r="P727" s="2"/>
@@ -81698,7 +81703,7 @@
         <v>73</v>
       </c>
       <c r="AG727" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="AH727" t="s" s="2">
         <v>74</v>
@@ -81715,13 +81720,13 @@
     </row>
     <row r="728">
       <c r="A728" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B728" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C728" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D728" s="2"/>
       <c r="E728" t="s" s="2">
@@ -81747,16 +81752,16 @@
         <v>354</v>
       </c>
       <c r="M728" t="s" s="2">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="N728" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="O728" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="P728" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="Q728" t="s" s="2">
         <v>73</v>
@@ -81805,7 +81810,7 @@
         <v>73</v>
       </c>
       <c r="AG728" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="AH728" t="s" s="2">
         <v>74</v>
@@ -81822,17 +81827,17 @@
     </row>
     <row r="729">
       <c r="A729" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B729" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C729" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D729" s="2"/>
       <c r="E729" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="F729" s="2"/>
       <c r="G729" t="s" s="2">
@@ -81854,16 +81859,16 @@
         <v>242</v>
       </c>
       <c r="M729" t="s" s="2">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="N729" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="O729" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="P729" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="Q729" t="s" s="2">
         <v>73</v>
@@ -81912,7 +81917,7 @@
         <v>73</v>
       </c>
       <c r="AG729" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="AH729" t="s" s="2">
         <v>74</v>
@@ -81929,13 +81934,13 @@
     </row>
     <row r="730">
       <c r="A730" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B730" t="s" s="2">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C730" t="s" s="2">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D730" s="2"/>
       <c r="E730" t="s" s="2">
@@ -82032,13 +82037,13 @@
     </row>
     <row r="731">
       <c r="A731" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B731" t="s" s="2">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C731" t="s" s="2">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D731" s="2"/>
       <c r="E731" t="s" s="2">
@@ -82137,16 +82142,16 @@
     </row>
     <row r="732">
       <c r="A732" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B732" t="s" s="2">
+        <v>1310</v>
+      </c>
+      <c r="C732" t="s" s="2">
         <v>1309</v>
       </c>
-      <c r="C732" t="s" s="2">
-        <v>1308</v>
-      </c>
       <c r="D732" t="s" s="2">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="E732" t="s" s="2">
         <v>73</v>
@@ -82168,13 +82173,13 @@
         <v>73</v>
       </c>
       <c r="L732" t="s" s="2">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="M732" t="s" s="2">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="N732" t="s" s="2">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="O732" s="2"/>
       <c r="P732" s="2"/>
@@ -82242,13 +82247,13 @@
     </row>
     <row r="733">
       <c r="A733" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B733" t="s" s="2">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C733" t="s" s="2">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D733" s="2"/>
       <c r="E733" t="s" s="2">
@@ -82345,13 +82350,13 @@
     </row>
     <row r="734">
       <c r="A734" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B734" t="s" s="2">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C734" t="s" s="2">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D734" s="2"/>
       <c r="E734" t="s" s="2">
@@ -82448,13 +82453,13 @@
     </row>
     <row r="735">
       <c r="A735" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B735" t="s" s="2">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C735" t="s" s="2">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D735" s="2"/>
       <c r="E735" t="s" s="2">
@@ -82494,7 +82499,7 @@
       </c>
       <c r="R735" s="2"/>
       <c r="S735" t="s" s="2">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="T735" t="s" s="2">
         <v>73</v>
@@ -82553,13 +82558,13 @@
     </row>
     <row r="736">
       <c r="A736" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B736" t="s" s="2">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C736" t="s" s="2">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D736" s="2"/>
       <c r="E736" t="s" s="2">
@@ -82582,7 +82587,7 @@
         <v>73</v>
       </c>
       <c r="L736" t="s" s="2">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="M736" t="s" s="2">
         <v>1008</v>
@@ -82627,7 +82632,7 @@
         <v>73</v>
       </c>
       <c r="AC736" t="s" s="2">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="AD736" s="2"/>
       <c r="AE736" t="s" s="2">
@@ -82654,16 +82659,16 @@
     </row>
     <row r="737">
       <c r="A737" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B737" t="s" s="2">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C737" t="s" s="2">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D737" t="s" s="2">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="E737" t="s" s="2">
         <v>73</v>
@@ -82685,7 +82690,7 @@
         <v>73</v>
       </c>
       <c r="L737" t="s" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="M737" t="s" s="2">
         <v>1008</v>
@@ -82759,13 +82764,13 @@
     </row>
     <row r="738">
       <c r="A738" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B738" t="s" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C738" t="s" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D738" s="2"/>
       <c r="E738" t="s" s="2">
@@ -82864,13 +82869,13 @@
     </row>
     <row r="739">
       <c r="A739" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B739" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C739" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D739" s="2"/>
       <c r="E739" t="s" s="2">
@@ -82969,13 +82974,13 @@
     </row>
     <row r="740">
       <c r="A740" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B740" t="s" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C740" t="s" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D740" s="2"/>
       <c r="E740" t="s" s="2">
@@ -83074,13 +83079,13 @@
     </row>
     <row r="741">
       <c r="A741" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B741" t="s" s="2">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C741" t="s" s="2">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D741" s="2"/>
       <c r="E741" t="s" s="2">
@@ -83179,13 +83184,13 @@
     </row>
     <row r="742">
       <c r="A742" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B742" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C742" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D742" s="2"/>
       <c r="E742" t="s" s="2">
@@ -83211,16 +83216,16 @@
         <v>219</v>
       </c>
       <c r="M742" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="N742" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="O742" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="P742" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="Q742" t="s" s="2">
         <v>73</v>
@@ -83248,10 +83253,10 @@
         <v>161</v>
       </c>
       <c r="Z742" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="AA742" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="AB742" t="s" s="2">
         <v>73</v>
@@ -83269,7 +83274,7 @@
         <v>73</v>
       </c>
       <c r="AG742" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="AH742" t="s" s="2">
         <v>74</v>
@@ -83286,13 +83291,13 @@
     </row>
     <row r="743">
       <c r="A743" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B743" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C743" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D743" s="2"/>
       <c r="E743" t="s" s="2">
@@ -83315,13 +83320,13 @@
         <v>73</v>
       </c>
       <c r="L743" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="M743" t="s" s="2">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="N743" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="O743" s="2"/>
       <c r="P743" s="2"/>
@@ -83372,7 +83377,7 @@
         <v>73</v>
       </c>
       <c r="AG743" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="AH743" t="s" s="2">
         <v>74</v>
@@ -83389,13 +83394,13 @@
     </row>
     <row r="744">
       <c r="A744" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B744" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C744" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D744" s="2"/>
       <c r="E744" t="s" s="2">
@@ -83421,13 +83426,13 @@
         <v>257</v>
       </c>
       <c r="M744" t="s" s="2">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="N744" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="O744" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="P744" s="2"/>
       <c r="Q744" t="s" s="2">
@@ -83477,7 +83482,7 @@
         <v>73</v>
       </c>
       <c r="AG744" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="AH744" t="s" s="2">
         <v>74</v>
@@ -83486,7 +83491,7 @@
         <v>75</v>
       </c>
       <c r="AJ744" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="AK744" t="s" s="2">
         <v>94</v>
@@ -83494,13 +83499,13 @@
     </row>
     <row r="745">
       <c r="A745" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B745" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C745" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D745" s="2"/>
       <c r="E745" t="s" s="2">
@@ -83597,13 +83602,13 @@
     </row>
     <row r="746">
       <c r="A746" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B746" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C746" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D746" s="2"/>
       <c r="E746" t="s" s="2">
@@ -83702,13 +83707,13 @@
     </row>
     <row r="747">
       <c r="A747" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B747" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C747" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D747" s="2"/>
       <c r="E747" t="s" s="2">
@@ -83809,13 +83814,13 @@
     </row>
     <row r="748">
       <c r="A748" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B748" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C748" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D748" s="2"/>
       <c r="E748" t="s" s="2">
@@ -83841,16 +83846,16 @@
         <v>219</v>
       </c>
       <c r="M748" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="N748" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="O748" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="P748" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="Q748" t="s" s="2">
         <v>73</v>
@@ -83878,10 +83883,10 @@
         <v>147</v>
       </c>
       <c r="Z748" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="AA748" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="AB748" t="s" s="2">
         <v>73</v>
@@ -83899,7 +83904,7 @@
         <v>73</v>
       </c>
       <c r="AG748" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="AH748" t="s" s="2">
         <v>74</v>
@@ -83916,13 +83921,13 @@
     </row>
     <row r="749">
       <c r="A749" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B749" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C749" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D749" s="2"/>
       <c r="E749" t="s" s="2">
@@ -83948,68 +83953,68 @@
         <v>528</v>
       </c>
       <c r="M749" t="s" s="2">
+        <v>1206</v>
+      </c>
+      <c r="N749" t="s" s="2">
+        <v>1207</v>
+      </c>
+      <c r="O749" t="s" s="2">
+        <v>1208</v>
+      </c>
+      <c r="P749" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="Q749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R749" t="s" s="2">
+        <v>1210</v>
+      </c>
+      <c r="S749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF749" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG749" t="s" s="2">
         <v>1205</v>
       </c>
-      <c r="N749" t="s" s="2">
-        <v>1206</v>
-      </c>
-      <c r="O749" t="s" s="2">
-        <v>1207</v>
-      </c>
-      <c r="P749" t="s" s="2">
-        <v>1208</v>
-      </c>
-      <c r="Q749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R749" t="s" s="2">
-        <v>1209</v>
-      </c>
-      <c r="S749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF749" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG749" t="s" s="2">
-        <v>1204</v>
-      </c>
       <c r="AH749" t="s" s="2">
         <v>74</v>
       </c>
@@ -84017,7 +84022,7 @@
         <v>82</v>
       </c>
       <c r="AJ749" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="AK749" t="s" s="2">
         <v>94</v>
@@ -84025,13 +84030,13 @@
     </row>
     <row r="750">
       <c r="A750" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B750" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C750" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D750" s="2"/>
       <c r="E750" t="s" s="2">
@@ -84057,14 +84062,14 @@
         <v>354</v>
       </c>
       <c r="M750" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="N750" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="O750" s="2"/>
       <c r="P750" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="Q750" t="s" s="2">
         <v>73</v>
@@ -84113,7 +84118,7 @@
         <v>73</v>
       </c>
       <c r="AG750" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="AH750" t="s" s="2">
         <v>74</v>
@@ -84130,13 +84135,13 @@
     </row>
     <row r="751">
       <c r="A751" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B751" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C751" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D751" s="2"/>
       <c r="E751" t="s" s="2">
@@ -84159,13 +84164,13 @@
         <v>73</v>
       </c>
       <c r="L751" t="s" s="2">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="M751" t="s" s="2">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="N751" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="O751" s="2"/>
       <c r="P751" s="2"/>
@@ -84216,7 +84221,7 @@
         <v>73</v>
       </c>
       <c r="AG751" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="AH751" t="s" s="2">
         <v>82</v>
@@ -84233,13 +84238,13 @@
     </row>
     <row r="752">
       <c r="A752" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B752" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C752" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D752" s="2"/>
       <c r="E752" t="s" s="2">
@@ -84265,16 +84270,16 @@
         <v>219</v>
       </c>
       <c r="M752" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="N752" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="O752" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="P752" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="Q752" t="s" s="2">
         <v>73</v>
@@ -84302,10 +84307,10 @@
         <v>161</v>
       </c>
       <c r="Z752" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="AA752" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="AB752" t="s" s="2">
         <v>73</v>
@@ -84323,7 +84328,7 @@
         <v>73</v>
       </c>
       <c r="AG752" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="AH752" t="s" s="2">
         <v>74</v>
@@ -84332,7 +84337,7 @@
         <v>82</v>
       </c>
       <c r="AJ752" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="AK752" t="s" s="2">
         <v>94</v>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:41:18+00:00</t>
+    <t>2024-05-28T14:01:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:01:49+00:00</t>
+    <t>2024-05-29T09:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T09:54:05+00:00</t>
+    <t>2024-05-29T09:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:03:18+00:00</t>
+    <t>2024-06-03T14:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24998" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24998" uniqueCount="1336">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:20:42+00:00</t>
+    <t>2024-10-31T16:32:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -724,7 +724,7 @@
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 constr-bind-type:Les valeurs possibles pour cet élément doivent provenir d’une des terminologies de référence suivantes :
  TRE_A05-TypeDocComplementaireCISIS, OID : 1.2.250.1.213.1.1.4.12
- TRE_A04-TypeDocument-LOINC, OID : 2.16.840.1.113883.6.1
+ LOINC, OID : 2.16.840.1.113883.6.1
  TRE_A12-NomenclatureASTM, OID : ASTM
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J66-TypeCode-DMP).
 En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {null}</t>
@@ -3868,12 +3868,6 @@
   </si>
   <si>
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.SimplifiedPublish.DocumentReference</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -5677,7 +5671,7 @@
         <v>2</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="174">
@@ -5685,7 +5679,7 @@
         <v>4</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="175">
@@ -5701,7 +5695,7 @@
         <v>8</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="177">
@@ -5709,7 +5703,7 @@
         <v>10</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="178">
@@ -5763,7 +5757,7 @@
         <v>23</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="185">
@@ -5807,7 +5801,7 @@
         <v>33</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="191">
@@ -71799,7 +71793,7 @@
         <v>126</v>
       </c>
       <c r="N632" t="s" s="2">
-        <v>1235</v>
+        <v>127</v>
       </c>
       <c r="O632" t="s" s="2">
         <v>128</v>
@@ -71904,7 +71898,7 @@
         <v>132</v>
       </c>
       <c r="N633" t="s" s="2">
-        <v>1236</v>
+        <v>133</v>
       </c>
       <c r="O633" t="s" s="2">
         <v>134</v>
@@ -72639,7 +72633,7 @@
         <v>105</v>
       </c>
       <c r="N640" t="s" s="2">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="O640" t="s" s="2">
         <v>107</v>
@@ -72847,7 +72841,7 @@
         <v>195</v>
       </c>
       <c r="N642" t="s" s="2">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="O642" t="s" s="2">
         <v>197</v>
@@ -73071,7 +73065,7 @@
         <v>75</v>
       </c>
       <c r="T644" t="s" s="2">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="U644" t="s" s="2">
         <v>75</v>
@@ -73089,10 +73083,10 @@
         <v>212</v>
       </c>
       <c r="Z644" t="s" s="2">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="AA644" t="s" s="2">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="AB644" t="s" s="2">
         <v>75</v>
@@ -73264,7 +73258,7 @@
         <v>221</v>
       </c>
       <c r="M646" t="s" s="2">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="N646" t="s" s="2">
         <v>222</v>
@@ -73470,7 +73464,7 @@
         <v>235</v>
       </c>
       <c r="M648" t="s" s="2">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="N648" t="s" s="2">
         <v>237</v>
@@ -73675,7 +73669,7 @@
         <v>85</v>
       </c>
       <c r="L650" t="s" s="2">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="M650" t="s" s="2">
         <v>245</v>
@@ -73780,10 +73774,10 @@
         <v>75</v>
       </c>
       <c r="L651" t="s" s="2">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="M651" t="s" s="2">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="N651" t="s" s="2">
         <v>251</v>
@@ -73993,10 +73987,10 @@
         <v>259</v>
       </c>
       <c r="M653" t="s" s="2">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="N653" t="s" s="2">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="O653" t="s" s="2">
         <v>262</v>
@@ -74413,7 +74407,7 @@
         <v>159</v>
       </c>
       <c r="M657" t="s" s="2">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="N657" t="s" s="2">
         <v>274</v>
@@ -74518,7 +74512,7 @@
         <v>279</v>
       </c>
       <c r="M658" t="s" s="2">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="N658" t="s" s="2">
         <v>281</v>
@@ -74835,7 +74829,7 @@
         <v>259</v>
       </c>
       <c r="M661" t="s" s="2">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="N661" t="s" s="2">
         <v>296</v>
@@ -75774,7 +75768,7 @@
         <v>321</v>
       </c>
       <c r="M670" t="s" s="2">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="N670" t="s" s="2">
         <v>323</v>
@@ -75881,7 +75875,7 @@
         <v>328</v>
       </c>
       <c r="M671" t="s" s="2">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="N671" t="s" s="2">
         <v>330</v>
@@ -76307,7 +76301,7 @@
         <v>356</v>
       </c>
       <c r="M675" t="s" s="2">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="N675" t="s" s="2">
         <v>358</v>
@@ -77310,7 +77304,7 @@
         <v>75</v>
       </c>
       <c r="AK684" t="s" s="2">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="685">
@@ -77415,7 +77409,7 @@
         <v>75</v>
       </c>
       <c r="AK685" t="s" s="2">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="686">
@@ -77628,7 +77622,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B688" t="s" s="2">
         <v>1102</v>
@@ -77731,7 +77725,7 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B689" t="s" s="2">
         <v>1104</v>
@@ -77836,7 +77830,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B690" t="s" s="2">
         <v>1105</v>
@@ -77939,7 +77933,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B691" t="s" s="2">
         <v>1106</v>
@@ -78042,7 +78036,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B692" t="s" s="2">
         <v>1107</v>
@@ -78147,7 +78141,7 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B693" t="s" s="2">
         <v>1108</v>
@@ -78252,7 +78246,7 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B694" t="s" s="2">
         <v>1109</v>
@@ -78357,7 +78351,7 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B695" t="s" s="2">
         <v>1110</v>
@@ -78462,7 +78456,7 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B696" t="s" s="2">
         <v>1111</v>
@@ -78567,7 +78561,7 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B697" t="s" s="2">
         <v>1112</v>
@@ -78672,7 +78666,7 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B698" t="s" s="2">
         <v>1113</v>
@@ -78777,7 +78771,7 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B699" t="s" s="2">
         <v>1114</v>
@@ -78882,7 +78876,7 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B700" t="s" s="2">
         <v>1115</v>
@@ -78987,7 +78981,7 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B701" t="s" s="2">
         <v>1116</v>
@@ -79092,7 +79086,7 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B702" t="s" s="2">
         <v>1117</v>
@@ -79124,7 +79118,7 @@
         <v>176</v>
       </c>
       <c r="M702" t="s" s="2">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="N702" t="s" s="2">
         <v>178</v>
@@ -79197,7 +79191,7 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B703" t="s" s="2">
         <v>1119</v>
@@ -79211,7 +79205,7 @@
       </c>
       <c r="F703" s="2"/>
       <c r="G703" t="s" s="2">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="H703" t="s" s="2">
         <v>77</v>
@@ -79298,7 +79292,7 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B704" t="s" s="2">
         <v>1120</v>
@@ -79332,7 +79326,7 @@
         <v>1122</v>
       </c>
       <c r="M704" t="s" s="2">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="N704" t="s" s="2">
         <v>1124</v>
@@ -79398,18 +79392,18 @@
         <v>190</v>
       </c>
       <c r="AK704" t="s" s="2">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" t="s" s="2">
@@ -79506,13 +79500,13 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
@@ -79609,13 +79603,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -79655,7 +79649,7 @@
       </c>
       <c r="R707" s="2"/>
       <c r="S707" t="s" s="2">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="T707" t="s" s="2">
         <v>75</v>
@@ -79714,13 +79708,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -79780,13 +79774,13 @@
       </c>
       <c r="Z708" s="2"/>
       <c r="AA708" t="s" s="2">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="AB708" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AC708" t="s" s="2">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="AD708" s="2"/>
       <c r="AE708" t="s" s="2">
@@ -79813,16 +79807,16 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D709" t="s" s="2">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E709" t="s" s="2">
         <v>75</v>
@@ -79918,16 +79912,16 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C710" t="s" s="2">
         <v>1119</v>
       </c>
       <c r="D710" t="s" s="2">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E710" t="s" s="2">
         <v>75</v>
@@ -79949,13 +79943,13 @@
         <v>75</v>
       </c>
       <c r="L710" t="s" s="2">
+        <v>1279</v>
+      </c>
+      <c r="M710" t="s" s="2">
+        <v>1280</v>
+      </c>
+      <c r="N710" t="s" s="2">
         <v>1281</v>
-      </c>
-      <c r="M710" t="s" s="2">
-        <v>1282</v>
-      </c>
-      <c r="N710" t="s" s="2">
-        <v>1283</v>
       </c>
       <c r="O710" s="2"/>
       <c r="P710" s="2"/>
@@ -80023,16 +80017,16 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C711" t="s" s="2">
         <v>1119</v>
       </c>
       <c r="D711" t="s" s="2">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="E711" t="s" s="2">
         <v>75</v>
@@ -80054,13 +80048,13 @@
         <v>75</v>
       </c>
       <c r="L711" t="s" s="2">
+        <v>1284</v>
+      </c>
+      <c r="M711" t="s" s="2">
+        <v>1285</v>
+      </c>
+      <c r="N711" t="s" s="2">
         <v>1286</v>
-      </c>
-      <c r="M711" t="s" s="2">
-        <v>1287</v>
-      </c>
-      <c r="N711" t="s" s="2">
-        <v>1288</v>
       </c>
       <c r="O711" s="2"/>
       <c r="P711" s="2"/>
@@ -80128,10 +80122,10 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C712" t="s" s="2">
         <v>1119</v>
@@ -80162,7 +80156,7 @@
         <v>187</v>
       </c>
       <c r="M712" t="s" s="2">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="N712" t="s" s="2">
         <v>189</v>
@@ -80233,16 +80227,16 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B713" t="s" s="2">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C713" t="s" s="2">
         <v>1119</v>
       </c>
       <c r="D713" t="s" s="2">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E713" t="s" s="2">
         <v>75</v>
@@ -80264,10 +80258,10 @@
         <v>75</v>
       </c>
       <c r="L713" t="s" s="2">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="M713" t="s" s="2">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="N713" t="s" s="2">
         <v>997</v>
@@ -80338,13 +80332,13 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B714" t="s" s="2">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C714" t="s" s="2">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" t="s" s="2">
@@ -80441,13 +80435,13 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B715" t="s" s="2">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C715" t="s" s="2">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" t="s" s="2">
@@ -80544,13 +80538,13 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C716" t="s" s="2">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" t="s" s="2">
@@ -80649,13 +80643,13 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C717" t="s" s="2">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" t="s" s="2">
@@ -80678,7 +80672,7 @@
         <v>75</v>
       </c>
       <c r="L717" t="s" s="2">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="M717" t="s" s="2">
         <v>1010</v>
@@ -80752,7 +80746,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B718" t="s" s="2">
         <v>1125</v>
@@ -80855,7 +80849,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B719" t="s" s="2">
         <v>1126</v>
@@ -80956,7 +80950,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B720" t="s" s="2">
         <v>1129</v>
@@ -80987,10 +80981,10 @@
         <v>75</v>
       </c>
       <c r="L720" t="s" s="2">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="M720" t="s" s="2">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="N720" t="s" s="2">
         <v>196</v>
@@ -81061,7 +81055,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>1132</v>
@@ -81095,7 +81089,7 @@
         <v>206</v>
       </c>
       <c r="M721" t="s" s="2">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="N721" t="s" s="2">
         <v>196</v>
@@ -81166,7 +81160,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>1134</v>
@@ -81198,7 +81192,7 @@
         <v>159</v>
       </c>
       <c r="M722" t="s" s="2">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="N722" t="s" s="2">
         <v>1136</v>
@@ -81215,7 +81209,7 @@
         <v>75</v>
       </c>
       <c r="T722" t="s" s="2">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="U722" t="s" s="2">
         <v>75</v>
@@ -81271,7 +81265,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>1140</v>
@@ -81303,7 +81297,7 @@
         <v>159</v>
       </c>
       <c r="M723" t="s" s="2">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="N723" t="s" s="2">
         <v>1142</v>
@@ -81378,7 +81372,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>1148</v>
@@ -81410,7 +81404,7 @@
         <v>98</v>
       </c>
       <c r="M724" t="s" s="2">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="N724" t="s" s="2">
         <v>1150</v>
@@ -81483,7 +81477,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>1153</v>
@@ -81515,7 +81509,7 @@
         <v>221</v>
       </c>
       <c r="M725" t="s" s="2">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="N725" t="s" s="2">
         <v>1155</v>
@@ -81534,7 +81528,7 @@
         <v>75</v>
       </c>
       <c r="T725" t="s" s="2">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="U725" t="s" s="2">
         <v>75</v>
@@ -81588,7 +81582,7 @@
     </row>
     <row r="726">
       <c r="A726" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B726" t="s" s="2">
         <v>1160</v>
@@ -81695,7 +81689,7 @@
     </row>
     <row r="727">
       <c r="A727" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B727" t="s" s="2">
         <v>1165</v>
@@ -81798,7 +81792,7 @@
     </row>
     <row r="728">
       <c r="A728" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B728" t="s" s="2">
         <v>1169</v>
@@ -81830,7 +81824,7 @@
         <v>356</v>
       </c>
       <c r="M728" t="s" s="2">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="N728" t="s" s="2">
         <v>1171</v>
@@ -81905,7 +81899,7 @@
     </row>
     <row r="729">
       <c r="A729" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B729" t="s" s="2">
         <v>1174</v>
@@ -81937,7 +81931,7 @@
         <v>244</v>
       </c>
       <c r="M729" t="s" s="2">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="N729" t="s" s="2">
         <v>1178</v>
@@ -82012,13 +82006,13 @@
     </row>
     <row r="730">
       <c r="A730" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B730" t="s" s="2">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C730" t="s" s="2">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D730" s="2"/>
       <c r="E730" t="s" s="2">
@@ -82115,13 +82109,13 @@
     </row>
     <row r="731">
       <c r="A731" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B731" t="s" s="2">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C731" t="s" s="2">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D731" s="2"/>
       <c r="E731" t="s" s="2">
@@ -82220,16 +82214,16 @@
     </row>
     <row r="732">
       <c r="A732" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B732" t="s" s="2">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C732" t="s" s="2">
+        <v>1309</v>
+      </c>
+      <c r="D732" t="s" s="2">
         <v>1311</v>
-      </c>
-      <c r="D732" t="s" s="2">
-        <v>1313</v>
       </c>
       <c r="E732" t="s" s="2">
         <v>75</v>
@@ -82251,13 +82245,13 @@
         <v>75</v>
       </c>
       <c r="L732" t="s" s="2">
+        <v>1312</v>
+      </c>
+      <c r="M732" t="s" s="2">
+        <v>1313</v>
+      </c>
+      <c r="N732" t="s" s="2">
         <v>1314</v>
-      </c>
-      <c r="M732" t="s" s="2">
-        <v>1315</v>
-      </c>
-      <c r="N732" t="s" s="2">
-        <v>1316</v>
       </c>
       <c r="O732" s="2"/>
       <c r="P732" s="2"/>
@@ -82325,13 +82319,13 @@
     </row>
     <row r="733">
       <c r="A733" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B733" t="s" s="2">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C733" t="s" s="2">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D733" s="2"/>
       <c r="E733" t="s" s="2">
@@ -82428,13 +82422,13 @@
     </row>
     <row r="734">
       <c r="A734" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B734" t="s" s="2">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C734" t="s" s="2">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D734" s="2"/>
       <c r="E734" t="s" s="2">
@@ -82531,13 +82525,13 @@
     </row>
     <row r="735">
       <c r="A735" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B735" t="s" s="2">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C735" t="s" s="2">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D735" s="2"/>
       <c r="E735" t="s" s="2">
@@ -82577,7 +82571,7 @@
       </c>
       <c r="R735" s="2"/>
       <c r="S735" t="s" s="2">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="T735" t="s" s="2">
         <v>75</v>
@@ -82636,13 +82630,13 @@
     </row>
     <row r="736">
       <c r="A736" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B736" t="s" s="2">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C736" t="s" s="2">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D736" s="2"/>
       <c r="E736" t="s" s="2">
@@ -82665,7 +82659,7 @@
         <v>75</v>
       </c>
       <c r="L736" t="s" s="2">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="M736" t="s" s="2">
         <v>1010</v>
@@ -82710,7 +82704,7 @@
         <v>75</v>
       </c>
       <c r="AC736" t="s" s="2">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="AD736" s="2"/>
       <c r="AE736" t="s" s="2">
@@ -82737,16 +82731,16 @@
     </row>
     <row r="737">
       <c r="A737" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B737" t="s" s="2">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C737" t="s" s="2">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D737" t="s" s="2">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E737" t="s" s="2">
         <v>75</v>
@@ -82768,7 +82762,7 @@
         <v>75</v>
       </c>
       <c r="L737" t="s" s="2">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="M737" t="s" s="2">
         <v>1010</v>
@@ -82842,13 +82836,13 @@
     </row>
     <row r="738">
       <c r="A738" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B738" t="s" s="2">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C738" t="s" s="2">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D738" s="2"/>
       <c r="E738" t="s" s="2">
@@ -82947,13 +82941,13 @@
     </row>
     <row r="739">
       <c r="A739" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B739" t="s" s="2">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C739" t="s" s="2">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D739" s="2"/>
       <c r="E739" t="s" s="2">
@@ -83052,13 +83046,13 @@
     </row>
     <row r="740">
       <c r="A740" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B740" t="s" s="2">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C740" t="s" s="2">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D740" s="2"/>
       <c r="E740" t="s" s="2">
@@ -83157,13 +83151,13 @@
     </row>
     <row r="741">
       <c r="A741" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B741" t="s" s="2">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C741" t="s" s="2">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D741" s="2"/>
       <c r="E741" t="s" s="2">
@@ -83262,7 +83256,7 @@
     </row>
     <row r="742">
       <c r="A742" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B742" t="s" s="2">
         <v>1181</v>
@@ -83369,7 +83363,7 @@
     </row>
     <row r="743">
       <c r="A743" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B743" t="s" s="2">
         <v>1188</v>
@@ -83401,7 +83395,7 @@
         <v>1189</v>
       </c>
       <c r="M743" t="s" s="2">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="N743" t="s" s="2">
         <v>1191</v>
@@ -83472,7 +83466,7 @@
     </row>
     <row r="744">
       <c r="A744" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B744" t="s" s="2">
         <v>1192</v>
@@ -83504,7 +83498,7 @@
         <v>259</v>
       </c>
       <c r="M744" t="s" s="2">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="N744" t="s" s="2">
         <v>1194</v>
@@ -83577,7 +83571,7 @@
     </row>
     <row r="745">
       <c r="A745" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B745" t="s" s="2">
         <v>1197</v>
@@ -83680,7 +83674,7 @@
     </row>
     <row r="746">
       <c r="A746" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B746" t="s" s="2">
         <v>1198</v>
@@ -83785,7 +83779,7 @@
     </row>
     <row r="747">
       <c r="A747" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B747" t="s" s="2">
         <v>1199</v>
@@ -83892,7 +83886,7 @@
     </row>
     <row r="748">
       <c r="A748" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B748" t="s" s="2">
         <v>1200</v>
@@ -83999,7 +83993,7 @@
     </row>
     <row r="749">
       <c r="A749" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B749" t="s" s="2">
         <v>1207</v>
@@ -84108,7 +84102,7 @@
     </row>
     <row r="750">
       <c r="A750" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B750" t="s" s="2">
         <v>1214</v>
@@ -84213,7 +84207,7 @@
     </row>
     <row r="751">
       <c r="A751" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B751" t="s" s="2">
         <v>1218</v>
@@ -84242,10 +84236,10 @@
         <v>75</v>
       </c>
       <c r="L751" t="s" s="2">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="M751" t="s" s="2">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="N751" t="s" s="2">
         <v>1221</v>
@@ -84316,7 +84310,7 @@
     </row>
     <row r="752">
       <c r="A752" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B752" t="s" s="2">
         <v>1222</v>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T16:32:22+00:00</t>
+    <t>2024-10-31T16:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -724,7 +724,7 @@
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 constr-bind-type:Les valeurs possibles pour cet élément doivent provenir d’une des terminologies de référence suivantes :
  TRE_A05-TypeDocComplementaireCISIS, OID : 1.2.250.1.213.1.1.4.12
- LOINC, OID : 2.16.840.1.113883.6.1
+ TRE_A04-TypeDocument-LOINC, OID : 2.16.840.1.113883.6.1
  TRE_A12-NomenclatureASTM, OID : ASTM
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J66-TypeCode-DMP).
 En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {null}</t>
